--- a/analise_financeiro/apresentação-Neomater.xlsx
+++ b/analise_financeiro/apresentação-Neomater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,12 +519,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -559,12 +559,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -599,12 +599,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -639,12 +639,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -679,12 +679,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -710,7 +710,7 @@
         <v>5850</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -719,16 +719,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>17550</v>
+        <v>5850</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -750,7 +750,7 @@
         <v>5237.06</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -759,16 +759,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>47133.54</v>
+        <v>10474.12</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -790,7 +790,7 @@
         <v>7157.78</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7157.78</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -839,12 +839,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -870,7 +870,7 @@
         <v>6608.86</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -879,16 +879,16 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6608.86</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -919,12 +919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -950,7 +950,7 @@
         <v>4850</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>19400</v>
+        <v>14550</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -991,12 +991,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1049,10 +1049,10 @@
         <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="16">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1114,17 +1114,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1154,17 +1154,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1194,17 +1194,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1274,17 +1274,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1350,25 +1350,25 @@
         <v>5237.06</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5237.06</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1394,17 +1394,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1514,17 +1514,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1554,17 +1554,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1586,17 +1586,17 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1626,17 +1626,17 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1666,17 +1666,17 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Itaguaí</t>
+          <t>Magé</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1714,17 +1714,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1754,17 +1754,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1834,17 +1834,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1874,17 +1874,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1910,25 +1910,25 @@
         <v>5850</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>5850</v>
+        <v>23400</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1950,25 +1950,25 @@
         <v>5237.06</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>20948.24</v>
+        <v>5237.06</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1994,17 +1994,17 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2034,17 +2034,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2070,25 +2070,25 @@
         <v>6608.86</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6608.86</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2114,17 +2114,17 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2150,25 +2150,25 @@
         <v>4850</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>9700</v>
+        <v>4850</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2186,17 +2186,17 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2226,17 +2226,17 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2266,17 +2266,17 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Japeri</t>
+          <t>Mesquita</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2314,17 +2314,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2354,17 +2354,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2434,17 +2434,17 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2474,17 +2474,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2510,25 +2510,25 @@
         <v>5850</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5850</v>
+        <v>29250</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2550,25 +2550,25 @@
         <v>5237.06</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>47133.54</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2590,25 +2590,25 @@
         <v>7157.78</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>21473.34</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2634,17 +2634,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2674,17 +2674,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2714,17 +2714,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2750,25 +2750,25 @@
         <v>4850</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>38800</v>
+        <v>14550</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2786,17 +2786,17 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2826,17 +2826,17 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2849,10 +2849,10 @@
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L60" t="n">
-        <v>2400</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="61">
@@ -2866,17 +2866,17 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mesquita</t>
+          <t>Nova Iguaçu</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2914,17 +2914,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2954,17 +2954,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2994,17 +2994,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3110,25 +3110,25 @@
         <v>5850</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>23400</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3150,25 +3150,25 @@
         <v>5237.06</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5237.06</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3190,25 +3190,25 @@
         <v>7157.78</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7157.78</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3234,17 +3234,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3274,17 +3274,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3314,17 +3314,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3350,25 +3350,25 @@
         <v>4850</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>24250</v>
+        <v>19400</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3386,17 +3386,17 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3426,17 +3426,17 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>2400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="76">
@@ -3466,17 +3466,17 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Nova Iguaçu</t>
+          <t>Queimados</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3514,17 +3514,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3554,17 +3554,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3594,17 +3594,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3634,17 +3634,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3674,17 +3674,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3710,25 +3710,25 @@
         <v>5850</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>11700</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3754,17 +3754,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3874,17 +3874,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3914,17 +3914,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3950,25 +3950,25 @@
         <v>4850</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>4850</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3986,17 +3986,17 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -4026,17 +4026,17 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -4049,10 +4049,10 @@
         <v>300</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91">
@@ -4066,17 +4066,17 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Queimados</t>
+          <t>Seropédica</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4114,17 +4114,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4154,17 +4154,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4194,17 +4194,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4234,17 +4234,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4274,17 +4274,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4310,25 +4310,25 @@
         <v>5850</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>11700</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4350,25 +4350,25 @@
         <v>5237.06</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>20948.24</v>
+        <v>10474.12</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4394,17 +4394,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4434,17 +4434,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4474,17 +4474,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4514,17 +4514,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4550,25 +4550,25 @@
         <v>4850</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>24250</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4586,17 +4586,17 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4626,17 +4626,17 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4649,10 +4649,10 @@
         <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L105" t="n">
-        <v>1200</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="106">
@@ -4666,17 +4666,17 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Seropédica</t>
+          <t>São João de Meriti</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/10 a 19</t>
+          <t>20/11 a 19/12</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4692,606 +4692,6 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>ADENOIDECTOMIA PEDIÁTRICO</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>5330</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA- PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>6713.01</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>AMIGDALECTOMIA COM ADENOIDECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>7698.35</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE PERFURAÇÃO DO SEPTO NASAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>CORREÇÃO CIRÚRGICO DE ESTRABISMO (ACIMA DE 2 MUSCULOS) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>5255.28</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>5850</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>5237.06</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>7157.78</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>TRATAMENTO CIRÚRGICO DE HIDROCELE - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>3782.7</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>6608.86</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>6608.86</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>PLASTICA TOTAL DO PENIS - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>6500</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>POSTECTOMIA - PEDIATRICO</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>4850</v>
-      </c>
-      <c r="D118" t="n">
-        <v>4</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>19400</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OTORRINO</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>300</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA CIRURGIA GERAL</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>300</v>
-      </c>
-      <c r="K120" t="n">
-        <v>4</v>
-      </c>
-      <c r="L120" t="n">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Neomater</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>São João de Meriti</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2026</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>20/10 a 19</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>CONSULTA PEDIATRICA OFTALMOLOGISTA</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>300</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
         <v>0</v>
       </c>
     </row>
